--- a/Addieren.xlsx
+++ b/Addieren.xlsx
@@ -349,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -377,6 +377,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Addieren.xlsx
+++ b/Addieren.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,6 +380,26 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
